--- a/ruby/res/test2.xlsx
+++ b/ruby/res/test2.xlsx
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="G3:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,105 +410,105 @@
     <col min="4" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="3" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="4" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="K4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
+    <row r="5" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
+    <row r="6" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
+    <row r="7" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
+    <row r="8" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
         <v>1</v>
       </c>
     </row>
